--- a/Tableau_suivi_journalier_camions_FEVRIER.xlsx
+++ b/Tableau_suivi_journalier_camions_FEVRIER.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Factory\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E83F3-CB63-44D8-B990-4DBC62A693B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="600" windowWidth="15612" windowHeight="7092" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="02-02-26" sheetId="1" r:id="rId1"/>
@@ -19,30 +13,15 @@
     <sheet name="05-02-26" sheetId="16" r:id="rId4"/>
     <sheet name="06-02-26" sheetId="22" r:id="rId5"/>
     <sheet name="07-02-26 " sheetId="23" r:id="rId6"/>
-    <sheet name="09-02-26" sheetId="25" r:id="rId7"/>
-    <sheet name="10-02-26 " sheetId="21" r:id="rId8"/>
-    <sheet name="RECAP 02-26" sheetId="24" r:id="rId9"/>
-    <sheet name="Récap_Mensuel" sheetId="2" r:id="rId10"/>
+    <sheet name="09-02-26 " sheetId="21" r:id="rId7"/>
+    <sheet name="Récap_Mensuel" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="97">
   <si>
     <t>TABLEAU DE SUIVI JOURNALIER — CAMIONS (PRODUIT FINI &amp; MATIÈRE PREMIÈRE)</t>
   </si>
@@ -334,103 +313,16 @@
   <si>
     <t>FAYEDH/FAYEDH</t>
   </si>
-  <si>
-    <t>KAIROUAN/METOUIA</t>
-  </si>
-  <si>
-    <t>KEBILI</t>
-  </si>
-  <si>
-    <t>BENGUERDEN</t>
-  </si>
-  <si>
-    <t>MEHDIA/MAZOUNA</t>
-  </si>
-  <si>
-    <t>MAZOUNA</t>
-  </si>
-  <si>
-    <t>CH/SP-HICH/SB</t>
-  </si>
-  <si>
-    <t>SB-SP</t>
-  </si>
-  <si>
-    <t>FAIEDH/SB/SP/HICH/SB</t>
-  </si>
-  <si>
-    <t>Djerba</t>
-  </si>
-  <si>
-    <t>ghannouch</t>
-  </si>
-  <si>
-    <t>tunis</t>
-  </si>
-  <si>
-    <t>zerziz</t>
-  </si>
-  <si>
-    <t>skhira/gabes</t>
-  </si>
-  <si>
-    <t>souk lahad gbelli</t>
-  </si>
-  <si>
-    <t>CHAGRA/ sirep prefa                                 Hicha/sirep beton</t>
-  </si>
-  <si>
-    <t>sirep prefa/feidh</t>
-  </si>
-  <si>
-    <t>3380TU 104</t>
-  </si>
-  <si>
-    <t>446TU228</t>
-  </si>
-  <si>
-    <t>Zerziz/jerba</t>
-  </si>
-  <si>
-    <t>SKHIRA</t>
-  </si>
-  <si>
-    <t>SP/T,SOUDE</t>
-  </si>
-  <si>
-    <t>Retour T.Soudé</t>
-  </si>
-  <si>
-    <t>Tunis</t>
-  </si>
-  <si>
-    <t>BEN GUERDENE</t>
-  </si>
-  <si>
-    <t>Voyage fer de oudhref</t>
-  </si>
-  <si>
-    <t>Voyage fer dsp</t>
-  </si>
-  <si>
-    <t>GAFSA/SKHIRA</t>
-  </si>
-  <si>
-    <t>CHAGRA</t>
-  </si>
-  <si>
-    <t>FAIEDH/SB/SP</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,20 +368,8 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,20 +408,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -604,22 +472,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D0D0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D0D0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,35 +528,6 @@
     <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -721,34 +549,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="40" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -821,17 +637,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF0000FF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1012,14 +820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1028,8 +836,8 @@
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -1038,82 +846,82 @@
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="14">
         <v>46055</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1212,7 +1020,7 @@
       <c r="M7" s="8">
         <v>20</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8">
         <v>80</v>
       </c>
@@ -1229,7 +1037,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1269,7 +1077,7 @@
       <c r="M8" s="8">
         <v>20</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="8">
         <v>1070</v>
       </c>
       <c r="O8" s="8">
@@ -1290,7 +1098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1330,7 +1138,7 @@
       <c r="M9" s="8">
         <v>20</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="8">
         <v>80</v>
       </c>
@@ -1347,7 +1155,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1387,7 +1195,7 @@
       <c r="M10" s="8">
         <v>20</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="8">
         <v>80</v>
       </c>
@@ -1404,7 +1212,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1444,7 +1252,7 @@
       <c r="M11" s="8">
         <v>20</v>
       </c>
-      <c r="N11" s="25"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="8">
         <v>80</v>
       </c>
@@ -1461,7 +1269,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1501,7 +1309,7 @@
       <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="8">
         <v>80</v>
       </c>
@@ -1518,7 +1326,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1558,7 +1366,7 @@
       <c r="M13" s="8">
         <v>20</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8">
         <v>80</v>
       </c>
@@ -1575,12 +1383,12 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -1588,7 +1396,7 @@
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="16"/>
@@ -1609,7 +1417,7 @@
       <c r="M14" s="8">
         <v>20</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="8">
         <v>80</v>
       </c>
@@ -1626,18 +1434,18 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="16"/>
@@ -1658,7 +1466,7 @@
       <c r="M15" s="8">
         <v>20</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="8">
         <v>80</v>
       </c>
@@ -1675,7 +1483,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -1715,7 +1523,7 @@
       <c r="M16" s="8">
         <v>20</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="8">
         <v>80</v>
       </c>
@@ -1732,7 +1540,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -1745,7 +1553,7 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="16"/>
@@ -1766,7 +1574,7 @@
       <c r="M17" s="8">
         <v>20</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="8">
         <v>80</v>
       </c>
@@ -1783,7 +1591,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -1823,7 +1631,7 @@
       <c r="M18" s="8">
         <v>20</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="8">
         <v>80</v>
       </c>
@@ -1840,7 +1648,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -1853,7 +1661,7 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="16"/>
@@ -1874,7 +1682,7 @@
       <c r="M19" s="8">
         <v>20</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="8">
         <v>80</v>
       </c>
@@ -1891,7 +1699,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -1931,7 +1739,7 @@
       <c r="M20" s="8">
         <v>20</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="8">
         <v>80</v>
       </c>
@@ -1948,7 +1756,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -1988,7 +1796,7 @@
       <c r="M21" s="8">
         <v>20</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="8">
         <v>80</v>
       </c>
@@ -2005,7 +1813,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -2031,7 +1839,7 @@
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="8">
         <v>0</v>
       </c>
@@ -2043,7 +1851,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -2069,7 +1877,7 @@
       <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="8">
         <v>0</v>
       </c>
@@ -2084,7 +1892,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -2110,7 +1918,7 @@
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>0</v>
       </c>
@@ -2125,7 +1933,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2146,14 +1954,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="11">
         <f>SUM(F7:F24)</f>
         <v>5774</v>
@@ -2168,23 +1976,23 @@
         <f>SUM(J7:J24)</f>
         <v>3620</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="29">
         <f>SUM(K7:K21)</f>
         <v>3120</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="29">
         <f>SUM(L7:L21)</f>
         <v>360</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
         <v>300</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="29">
         <f t="shared" si="4"/>
         <v>1070</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="29">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
@@ -2202,7 +2010,7 @@
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
@@ -2212,19 +2020,19 @@
       <c r="J27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
+      <c r="L27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -2247,7 +2055,7 @@
     <mergeCell ref="A4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2255,74 +2063,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2331,8 +2080,8 @@
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -2341,82 +2090,82 @@
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="14">
         <v>46056</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2475,7 +2224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -2513,7 +2262,7 @@
       <c r="M7" s="8">
         <v>20</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8">
         <v>80</v>
       </c>
@@ -2530,7 +2279,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2570,7 +2319,7 @@
       <c r="M8" s="8">
         <v>20</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="8">
         <v>0</v>
       </c>
       <c r="O8" s="8">
@@ -2589,7 +2338,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2629,7 +2378,7 @@
       <c r="M9" s="8">
         <v>20</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="8">
         <v>80</v>
       </c>
@@ -2646,7 +2395,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2686,7 +2435,7 @@
       <c r="M10" s="8">
         <v>20</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="8">
         <v>80</v>
       </c>
@@ -2703,7 +2452,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2743,7 +2492,7 @@
       <c r="M11" s="8">
         <v>20</v>
       </c>
-      <c r="N11" s="25"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="8">
         <v>80</v>
       </c>
@@ -2760,7 +2509,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2794,7 +2543,7 @@
       <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="8">
         <v>80</v>
       </c>
@@ -2811,7 +2560,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2845,7 +2594,7 @@
       <c r="M13" s="8">
         <v>20</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8">
         <v>80</v>
       </c>
@@ -2862,12 +2611,12 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -2875,7 +2624,7 @@
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="16"/>
@@ -2896,7 +2645,7 @@
       <c r="M14" s="8">
         <v>20</v>
       </c>
-      <c r="N14" s="25"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="8">
         <v>80</v>
       </c>
@@ -2913,18 +2662,18 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="16"/>
@@ -2945,26 +2694,24 @@
       <c r="M15" s="8">
         <v>20</v>
       </c>
-      <c r="N15" s="25">
-        <v>446.25</v>
-      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="8">
         <v>80</v>
       </c>
       <c r="P15" s="7">
         <f t="shared" si="3"/>
-        <v>646.25</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="8">
         <v>0</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="2"/>
-        <v>-646.25</v>
+        <v>-200</v>
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -3004,7 +2751,7 @@
       <c r="M16" s="8">
         <v>20</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="8">
         <v>80</v>
       </c>
@@ -3021,7 +2768,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -3034,7 +2781,7 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="16"/>
@@ -3055,7 +2802,7 @@
       <c r="M17" s="8">
         <v>20</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="8">
         <v>80</v>
       </c>
@@ -3072,7 +2819,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -3112,26 +2859,24 @@
       <c r="M18" s="8">
         <v>20</v>
       </c>
-      <c r="N18" s="25">
-        <v>119</v>
-      </c>
+      <c r="N18" s="8"/>
       <c r="O18" s="8">
         <v>80</v>
       </c>
       <c r="P18" s="7">
         <f t="shared" si="3"/>
-        <v>559</v>
+        <v>440</v>
       </c>
       <c r="Q18" s="8">
         <v>800</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="2"/>
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -3144,7 +2889,7 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="16"/>
@@ -3165,7 +2910,7 @@
       <c r="M19" s="8">
         <v>20</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="8">
         <v>80</v>
       </c>
@@ -3182,7 +2927,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -3222,7 +2967,7 @@
       <c r="M20" s="8">
         <v>20</v>
       </c>
-      <c r="N20" s="25"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="8">
         <v>80</v>
       </c>
@@ -3239,7 +2984,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -3279,7 +3024,7 @@
       <c r="M21" s="8">
         <v>20</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="8">
         <v>80</v>
       </c>
@@ -3296,7 +3041,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -3322,7 +3067,7 @@
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="8">
         <v>0</v>
       </c>
@@ -3334,7 +3079,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -3360,7 +3105,7 @@
       <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="8">
         <v>0</v>
       </c>
@@ -3375,7 +3120,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -3401,7 +3146,7 @@
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>0</v>
       </c>
@@ -3416,7 +3161,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3437,14 +3182,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="11">
         <f>SUM(F7:F24)</f>
         <v>2274</v>
@@ -3459,29 +3204,29 @@
         <f>SUM(J7:J24)</f>
         <v>1490</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="29">
         <f>SUM(K7:K21)</f>
         <v>3120</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="29">
         <f>SUM(L7:L21)</f>
         <v>360</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
         <v>300</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="29">
         <f t="shared" si="4"/>
-        <v>565.25</v>
-      </c>
-      <c r="O26" s="20">
+        <v>0</v>
+      </c>
+      <c r="O26" s="29">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="P26" s="12">
         <f>SUM(P7:P24)</f>
-        <v>7035.25</v>
+        <v>6470</v>
       </c>
       <c r="Q26" s="12">
         <f>SUM(Q7:Q24)</f>
@@ -3489,11 +3234,11 @@
       </c>
       <c r="R26" s="12">
         <f>SUM(R7:R24)</f>
-        <v>-1114.25</v>
+        <v>-549</v>
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
@@ -3503,19 +3248,19 @@
       <c r="J27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
+      <c r="L27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -3530,15 +3275,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3547,14 +3292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -3563,8 +3308,8 @@
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -3573,82 +3318,82 @@
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="14">
         <v>46057</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3707,7 +3452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3747,7 +3492,7 @@
       <c r="M7" s="8">
         <v>20</v>
       </c>
-      <c r="N7" s="25"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8">
         <v>80</v>
       </c>
@@ -3764,7 +3509,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3804,7 +3549,7 @@
       <c r="M8" s="8">
         <v>20</v>
       </c>
-      <c r="N8" s="25"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="8">
         <v>80</v>
       </c>
@@ -3821,7 +3566,7 @@
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -3861,7 +3606,7 @@
       <c r="M9" s="8">
         <v>20</v>
       </c>
-      <c r="N9" s="25"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="8">
         <v>80</v>
       </c>
@@ -3878,7 +3623,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -3918,26 +3663,24 @@
       <c r="M10" s="8">
         <v>20</v>
       </c>
-      <c r="N10" s="25">
-        <v>1225.2239999999999</v>
-      </c>
+      <c r="N10" s="8"/>
       <c r="O10" s="8">
         <v>80</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="3"/>
-        <v>1665.2239999999999</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="8">
         <v>553</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="2"/>
-        <v>-1112.2239999999999</v>
+        <v>113</v>
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -3977,26 +3720,26 @@
       <c r="M11" s="8">
         <v>20</v>
       </c>
-      <c r="N11" s="25">
-        <v>420.95699999999999</v>
+      <c r="N11" s="8">
+        <v>420</v>
       </c>
       <c r="O11" s="8">
         <v>80</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="3"/>
-        <v>700.95699999999999</v>
+        <v>700</v>
       </c>
       <c r="Q11" s="8">
         <v>234</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="2"/>
-        <v>-466.95699999999999</v>
+        <v>-466</v>
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -4032,7 +3775,7 @@
       <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="8">
         <v>80</v>
       </c>
@@ -4049,7 +3792,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -4089,7 +3832,7 @@
       <c r="M13" s="8">
         <v>20</v>
       </c>
-      <c r="N13" s="25"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="8">
         <v>80</v>
       </c>
@@ -4106,12 +3849,12 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -4119,7 +3862,7 @@
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="16"/>
@@ -4140,31 +3883,29 @@
       <c r="M14" s="8">
         <v>20</v>
       </c>
-      <c r="N14" s="25">
-        <v>620</v>
-      </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="8">
         <v>80</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="3"/>
-        <v>820</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="8">
         <v>0</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="2"/>
-        <v>-820</v>
+        <v>-200</v>
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
@@ -4197,7 +3938,7 @@
       <c r="M15" s="8">
         <v>20</v>
       </c>
-      <c r="N15" s="25"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="8">
         <v>80</v>
       </c>
@@ -4214,7 +3955,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -4254,7 +3995,7 @@
       <c r="M16" s="8">
         <v>20</v>
       </c>
-      <c r="N16" s="25"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="8">
         <v>80</v>
       </c>
@@ -4271,7 +4012,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -4284,7 +4025,7 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="16"/>
@@ -4305,26 +4046,26 @@
       <c r="M17" s="8">
         <v>20</v>
       </c>
-      <c r="N17" s="25">
-        <v>673.65899999999999</v>
+      <c r="N17" s="8">
+        <v>673</v>
       </c>
       <c r="O17" s="8">
         <v>80</v>
       </c>
       <c r="P17" s="7">
         <f t="shared" si="3"/>
-        <v>873.65899999999999</v>
+        <v>873</v>
       </c>
       <c r="Q17" s="8">
         <v>0</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="2"/>
-        <v>-873.65899999999999</v>
+        <v>-873</v>
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -4364,7 +4105,7 @@
       <c r="M18" s="8">
         <v>20</v>
       </c>
-      <c r="N18" s="25"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="8">
         <v>80</v>
       </c>
@@ -4381,7 +4122,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -4394,7 +4135,7 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="16"/>
@@ -4415,7 +4156,7 @@
       <c r="M19" s="8">
         <v>20</v>
       </c>
-      <c r="N19" s="25"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="8">
         <v>80</v>
       </c>
@@ -4432,7 +4173,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -4472,26 +4213,24 @@
       <c r="M20" s="8">
         <v>20</v>
       </c>
-      <c r="N20" s="25">
-        <v>373.38499999999999</v>
-      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="8">
         <v>80</v>
       </c>
       <c r="P20" s="7">
         <f t="shared" si="3"/>
-        <v>1175.385</v>
+        <v>802</v>
       </c>
       <c r="Q20" s="8">
         <v>980</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="2"/>
-        <v>-195.38499999999999</v>
+        <v>178</v>
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -4531,7 +4270,7 @@
       <c r="M21" s="8">
         <v>20</v>
       </c>
-      <c r="N21" s="25"/>
+      <c r="N21" s="8"/>
       <c r="O21" s="8">
         <v>80</v>
       </c>
@@ -4548,7 +4287,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -4574,7 +4313,7 @@
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="8">
         <v>0</v>
       </c>
@@ -4586,7 +4325,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -4612,7 +4351,7 @@
       <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="25"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="8">
         <v>0</v>
       </c>
@@ -4627,7 +4366,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -4653,7 +4392,7 @@
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>0</v>
       </c>
@@ -4668,7 +4407,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4689,14 +4428,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="11">
         <f>SUM(F7:F24)</f>
         <v>3128</v>
@@ -4711,29 +4450,29 @@
         <f>SUM(J7:J24)</f>
         <v>2020</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="29">
         <f>SUM(K7:K21)</f>
         <v>3120</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="29">
         <f>SUM(L7:L21)</f>
         <v>360</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
         <v>300</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="29">
         <f t="shared" si="4"/>
-        <v>3313.2250000000004</v>
-      </c>
-      <c r="O26" s="20">
+        <v>1093</v>
+      </c>
+      <c r="O26" s="29">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="P26" s="12">
         <f>SUM(P7:P24)</f>
-        <v>10313.225</v>
+        <v>8093</v>
       </c>
       <c r="Q26" s="12">
         <f>SUM(Q7:Q24)</f>
@@ -4741,11 +4480,11 @@
       </c>
       <c r="R26" s="12">
         <f>SUM(R7:R24)</f>
-        <v>-4627.2250000000004</v>
+        <v>-2407</v>
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
@@ -4755,19 +4494,19 @@
       <c r="J27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
+      <c r="L27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -4782,15 +4521,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4799,14 +4538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -4815,8 +4554,8 @@
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -4825,82 +4564,82 @@
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="14">
         <v>46058</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4959,7 +4698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4999,7 +4738,7 @@
       <c r="M7" s="8">
         <v>20</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="O7" s="8">
@@ -5018,7 +4757,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -5058,26 +4797,26 @@
       <c r="M8" s="8">
         <v>20</v>
       </c>
-      <c r="N8" s="25">
-        <v>1066</v>
+      <c r="N8" s="8">
+        <v>0</v>
       </c>
       <c r="O8" s="8">
         <v>80</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P24" si="3">J8+N(K8)+N(L8)+N(M8)+N(O8)+N8</f>
-        <v>1818</v>
+        <v>752</v>
       </c>
       <c r="Q8" s="8">
         <v>591</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="2"/>
-        <v>-1227</v>
+        <v>-161</v>
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -5115,7 +4854,7 @@
       <c r="M9" s="8">
         <v>20</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="8">
         <v>0</v>
       </c>
       <c r="O9" s="8">
@@ -5134,7 +4873,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -5174,7 +4913,7 @@
       <c r="M10" s="8">
         <v>20</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="8">
         <v>0</v>
       </c>
       <c r="O10" s="8">
@@ -5193,7 +4932,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -5231,7 +4970,7 @@
       <c r="M11" s="8">
         <v>20</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="8">
         <v>0</v>
       </c>
       <c r="O11" s="8">
@@ -5250,7 +4989,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -5290,7 +5029,7 @@
       <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="8">
@@ -5309,7 +5048,7 @@
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -5349,33 +5088,33 @@
       <c r="M13" s="8">
         <v>20</v>
       </c>
-      <c r="N13" s="25">
-        <v>0</v>
+      <c r="N13" s="8">
+        <v>1546</v>
       </c>
       <c r="O13" s="8">
         <v>80</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="3"/>
-        <v>812</v>
+        <v>2358</v>
       </c>
       <c r="Q13" s="8">
         <v>590</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="2"/>
-        <v>-222</v>
+        <v>-1768</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -5383,7 +5122,7 @@
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="6">
         <v>0</v>
       </c>
@@ -5408,7 +5147,7 @@
       <c r="M14" s="8">
         <v>20</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="8">
         <v>0</v>
       </c>
       <c r="O14" s="8">
@@ -5427,18 +5166,18 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6">
         <v>0</v>
       </c>
@@ -5463,7 +5202,7 @@
       <c r="M15" s="8">
         <v>20</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="8">
         <v>0</v>
       </c>
       <c r="O15" s="8">
@@ -5482,7 +5221,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -5522,7 +5261,7 @@
       <c r="M16" s="8">
         <v>20</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="8">
@@ -5541,7 +5280,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -5554,7 +5293,7 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -5579,26 +5318,26 @@
       <c r="M17" s="8">
         <v>20</v>
       </c>
-      <c r="N17" s="25">
-        <v>449.82</v>
+      <c r="N17" s="8">
+        <v>0</v>
       </c>
       <c r="O17" s="8">
         <v>80</v>
       </c>
       <c r="P17" s="7">
         <f t="shared" si="3"/>
-        <v>649.81999999999994</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="8">
         <v>0</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="2"/>
-        <v>-649.81999999999994</v>
+        <v>-200</v>
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -5638,7 +5377,7 @@
       <c r="M18" s="8">
         <v>20</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="8">
         <v>0</v>
       </c>
       <c r="O18" s="8">
@@ -5657,7 +5396,7 @@
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -5670,7 +5409,7 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="6">
         <v>0</v>
       </c>
@@ -5695,7 +5434,7 @@
       <c r="M19" s="8">
         <v>20</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="8">
         <v>0</v>
       </c>
       <c r="O19" s="8">
@@ -5714,7 +5453,7 @@
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -5754,7 +5493,7 @@
       <c r="M20" s="8">
         <v>20</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="8">
         <v>0</v>
       </c>
       <c r="O20" s="8">
@@ -5773,7 +5512,7 @@
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -5813,7 +5552,7 @@
       <c r="M21" s="8">
         <v>20</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="8">
         <v>0</v>
       </c>
       <c r="O21" s="8">
@@ -5832,7 +5571,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -5858,7 +5597,7 @@
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="8">
         <v>0</v>
       </c>
       <c r="O22" s="8">
@@ -5877,7 +5616,7 @@
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -5903,7 +5642,7 @@
       <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="8">
         <v>0</v>
       </c>
       <c r="O23" s="8">
@@ -5922,7 +5661,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -5948,7 +5687,7 @@
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>0</v>
       </c>
@@ -5963,7 +5702,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -5984,14 +5723,14 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="11">
         <f>SUM(F7:F24)</f>
         <v>2680</v>
@@ -6006,29 +5745,29 @@
         <f>SUM(J7:J24)</f>
         <v>1700</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="29">
         <f>SUM(K7:K21)</f>
         <v>3120</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="29">
         <f>SUM(L7:L21)</f>
         <v>360</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
         <v>300</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="29">
         <f>SUM(N7:N23)</f>
-        <v>1515.82</v>
-      </c>
-      <c r="O26" s="20">
+        <v>1546</v>
+      </c>
+      <c r="O26" s="29">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="P26" s="12">
         <f>SUM(P7:P24)</f>
-        <v>8195.82</v>
+        <v>8226</v>
       </c>
       <c r="Q26" s="12">
         <f>SUM(Q7:Q24)</f>
@@ -6036,11 +5775,11 @@
       </c>
       <c r="R26" s="12">
         <f>SUM(R7:R24)</f>
-        <v>-2788.8199999999997</v>
+        <v>-2819</v>
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
@@ -6050,19 +5789,19 @@
       <c r="J27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
+      <c r="L27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -6077,12 +5816,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="R7:R24">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
@@ -6094,14 +5833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -6110,8 +5849,8 @@
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -6120,82 +5859,82 @@
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="14">
-        <v>46059</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
+        <v>46058</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -6254,7 +5993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -6267,7 +6006,9 @@
       <c r="D7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
@@ -6292,7 +6033,7 @@
       <c r="M7" s="8">
         <v>20</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="O7" s="8">
@@ -6311,7 +6052,7 @@
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -6325,14 +6066,14 @@
         <v>65</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F8" s="6">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="16">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="0"/>
@@ -6340,7 +6081,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
         <v>400</v>
@@ -6351,7 +6092,7 @@
       <c r="M8" s="8">
         <v>20</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="8">
         <v>0</v>
       </c>
       <c r="O8" s="8">
@@ -6359,18 +6100,18 @@
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P24" si="3">J8+N(K8)+N(L8)+N(M8)+N(O8)+N8</f>
-        <v>802</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="8">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-532</v>
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -6383,7 +6124,9 @@
       <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
@@ -6408,7 +6151,7 @@
       <c r="M9" s="8">
         <v>20</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="8">
         <v>0</v>
       </c>
       <c r="O9" s="8">
@@ -6427,7 +6170,7 @@
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -6440,7 +6183,9 @@
       <c r="D10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
@@ -6465,7 +6210,7 @@
       <c r="M10" s="8">
         <v>20</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="8">
         <v>0</v>
       </c>
       <c r="O10" s="8">
@@ -6484,7 +6229,7 @@
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -6498,14 +6243,14 @@
         <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="16">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="0"/>
@@ -6513,7 +6258,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
         <v>80</v>
@@ -6524,7 +6269,7 @@
       <c r="M11" s="8">
         <v>20</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="8">
         <v>0</v>
       </c>
       <c r="O11" s="8">
@@ -6532,18 +6277,18 @@
       </c>
       <c r="P11" s="7">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="8">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>-200</v>
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -6557,14 +6302,14 @@
         <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="16">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="0"/>
@@ -6572,7 +6317,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <v>400</v>
@@ -6583,7 +6328,7 @@
       <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="8">
@@ -6591,18 +6336,18 @@
       </c>
       <c r="P12" s="7">
         <f t="shared" si="3"/>
-        <v>780</v>
+        <v>520</v>
       </c>
       <c r="Q12" s="8">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="2"/>
-        <v>-110</v>
+        <v>-520</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -6616,14 +6361,14 @@
         <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="16">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
@@ -6631,7 +6376,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
         <v>400</v>
@@ -6642,7 +6387,7 @@
       <c r="M13" s="8">
         <v>20</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="8">
         <v>0</v>
       </c>
       <c r="O13" s="8">
@@ -6650,23 +6395,23 @@
       </c>
       <c r="P13" s="7">
         <f t="shared" si="3"/>
-        <v>782</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="8">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>-532</v>
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -6674,7 +6419,7 @@
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="6">
         <v>0</v>
       </c>
@@ -6699,7 +6444,7 @@
       <c r="M14" s="8">
         <v>20</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="8">
         <v>0</v>
       </c>
       <c r="O14" s="8">
@@ -6718,26 +6463,24 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="E15" s="28"/>
       <c r="F15" s="6">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="16">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="0"/>
@@ -6745,7 +6488,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
         <v>80</v>
@@ -6756,7 +6499,7 @@
       <c r="M15" s="8">
         <v>20</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="8">
         <v>0</v>
       </c>
       <c r="O15" s="8">
@@ -6764,18 +6507,18 @@
       </c>
       <c r="P15" s="7">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="8">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>-200</v>
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -6788,7 +6531,9 @@
       <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
@@ -6813,7 +6558,7 @@
       <c r="M16" s="8">
         <v>20</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="8">
@@ -6832,7 +6577,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -6845,7 +6590,7 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="6">
         <v>0</v>
       </c>
@@ -6870,7 +6615,7 @@
       <c r="M17" s="8">
         <v>20</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="8">
         <v>0</v>
       </c>
       <c r="O17" s="8">
@@ -6889,7 +6634,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -6903,14 +6648,14 @@
         <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F18" s="6">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="16">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="0"/>
@@ -6918,7 +6663,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="K18" s="8">
         <v>80</v>
@@ -6929,7 +6674,7 @@
       <c r="M18" s="8">
         <v>20</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="8">
         <v>0</v>
       </c>
       <c r="O18" s="8">
@@ -6937,18 +6682,18 @@
       </c>
       <c r="P18" s="7">
         <f t="shared" si="3"/>
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="8">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -6961,15 +6706,13 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="E19" s="28"/>
       <c r="F19" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="0"/>
@@ -6977,7 +6720,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K19" s="8">
         <v>80</v>
@@ -6988,7 +6731,7 @@
       <c r="M19" s="8">
         <v>20</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="8">
         <v>0</v>
       </c>
       <c r="O19" s="8">
@@ -6996,18 +6739,18 @@
       </c>
       <c r="P19" s="7">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="2"/>
-        <v>-70</v>
+        <v>-200</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -7021,14 +6764,14 @@
         <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F20" s="6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="0"/>
@@ -7036,7 +6779,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K20" s="8">
         <v>400</v>
@@ -7047,7 +6790,7 @@
       <c r="M20" s="8">
         <v>20</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="8">
         <v>0</v>
       </c>
       <c r="O20" s="8">
@@ -7055,18 +6798,18 @@
       </c>
       <c r="P20" s="7">
         <f t="shared" si="3"/>
-        <v>802</v>
+        <v>532</v>
       </c>
       <c r="Q20" s="8">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>-532</v>
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -7080,14 +6823,14 @@
         <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="16">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="0"/>
@@ -7095,7 +6838,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K21" s="8">
         <v>400</v>
@@ -7106,7 +6849,7 @@
       <c r="M21" s="8">
         <v>20</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="8">
         <v>0</v>
       </c>
       <c r="O21" s="8">
@@ -7114,18 +6857,18 @@
       </c>
       <c r="P21" s="7">
         <f t="shared" si="3"/>
-        <v>802</v>
+        <v>532</v>
       </c>
       <c r="Q21" s="8">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>-532</v>
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -7151,7 +6894,7 @@
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="8">
         <v>0</v>
       </c>
       <c r="O22" s="8">
@@ -7170,7 +6913,7 @@
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -7196,7 +6939,7 @@
       <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="8">
         <v>0</v>
       </c>
       <c r="O23" s="8">
@@ -7215,7 +6958,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -7241,7 +6984,7 @@
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>0</v>
       </c>
@@ -7256,7 +6999,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -7277,63 +7020,63 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="11">
         <f>SUM(F7:F24)</f>
-        <v>2930</v>
+        <v>0</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="18">
         <f>SUM(H7:H24)</f>
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="12">
         <f>SUM(J7:J24)</f>
-        <v>1940</v>
-      </c>
-      <c r="K26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29">
         <f>SUM(K7:K21)</f>
         <v>3120</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="29">
         <f>SUM(L7:L21)</f>
         <v>360</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
         <v>300</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="29">
         <f>SUM(N7:N23)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="29">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="P26" s="12">
         <f>SUM(P7:P24)</f>
-        <v>6920</v>
+        <v>4980</v>
       </c>
       <c r="Q26" s="12">
         <f>SUM(Q7:Q24)</f>
-        <v>6350</v>
+        <v>0</v>
       </c>
       <c r="R26" s="12">
         <f>SUM(R7:R24)</f>
-        <v>-570</v>
+        <v>-4980</v>
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
@@ -7343,19 +7086,19 @@
       <c r="J27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
+      <c r="L27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -7370,15 +7113,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7387,14 +7130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -7403,93 +7146,92 @@
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="14">
-        <v>46060</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
+        <v>46058</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -7548,7 +7290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -7562,14 +7304,14 @@
         <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F7" s="6">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="16">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" ref="I7:I24" si="0">$F$3</f>
@@ -7577,7 +7319,7 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J24" si="1">IF(OR(H7="",I7=""),0,H7*I7)</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K7" s="8">
         <v>400</v>
@@ -7588,7 +7330,7 @@
       <c r="M7" s="8">
         <v>20</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="O7" s="8">
@@ -7596,18 +7338,18 @@
       </c>
       <c r="P7" s="7">
         <f>J7+N(K7)+N(L7)+N(M7)+N(O7)+N7</f>
-        <v>752</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="8">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" ref="R7:R24" si="2">IF(Q7="","",N(Q7)-P7)</f>
-        <v>-199</v>
+        <v>-532</v>
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -7621,14 +7363,14 @@
         <v>65</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="F8" s="6">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="16">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="0"/>
@@ -7636,7 +7378,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
         <v>400</v>
@@ -7647,7 +7389,7 @@
       <c r="M8" s="8">
         <v>20</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="8">
         <v>0</v>
       </c>
       <c r="O8" s="8">
@@ -7655,18 +7397,18 @@
       </c>
       <c r="P8" s="7">
         <f t="shared" ref="P8:P24" si="3">J8+N(K8)+N(L8)+N(M8)+N(O8)+N8</f>
-        <v>772</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="8">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="2"/>
-        <v>-212</v>
+        <v>-532</v>
       </c>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -7676,18 +7418,18 @@
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F9" s="6">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="16">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="0"/>
@@ -7695,7 +7437,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8">
         <v>80</v>
@@ -7706,7 +7448,7 @@
       <c r="M9" s="8">
         <v>20</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="8">
         <v>0</v>
       </c>
       <c r="O9" s="8">
@@ -7714,18 +7456,18 @@
       </c>
       <c r="P9" s="7">
         <f t="shared" si="3"/>
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="8">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="2"/>
-        <v>-180</v>
+        <v>-200</v>
       </c>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -7742,11 +7484,11 @@
         <v>72</v>
       </c>
       <c r="F10" s="6">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="16">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="0"/>
@@ -7754,7 +7496,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K10" s="8">
         <v>80</v>
@@ -7765,7 +7507,7 @@
       <c r="M10" s="8">
         <v>20</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="8">
         <v>0</v>
       </c>
       <c r="O10" s="8">
@@ -7773,18 +7515,18 @@
       </c>
       <c r="P10" s="7">
         <f t="shared" si="3"/>
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="8">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>-200</v>
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -7798,14 +7540,14 @@
         <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="16">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="0"/>
@@ -7813,7 +7555,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
         <v>80</v>
@@ -7824,7 +7566,7 @@
       <c r="M11" s="8">
         <v>20</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="8">
         <v>0</v>
       </c>
       <c r="O11" s="8">
@@ -7832,18 +7574,18 @@
       </c>
       <c r="P11" s="7">
         <f t="shared" si="3"/>
-        <v>690</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="8">
-        <v>1113</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="2"/>
-        <v>423</v>
+        <v>-200</v>
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -7857,14 +7599,14 @@
         <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="16">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="0"/>
@@ -7872,7 +7614,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <v>400</v>
@@ -7883,7 +7625,7 @@
       <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="8">
@@ -7891,18 +7633,18 @@
       </c>
       <c r="P12" s="7">
         <f t="shared" si="3"/>
-        <v>740</v>
+        <v>520</v>
       </c>
       <c r="Q12" s="8">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="2"/>
-        <v>-90</v>
+        <v>-520</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -7916,14 +7658,14 @@
         <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="16">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
@@ -7931,7 +7673,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
         <v>400</v>
@@ -7942,31 +7684,31 @@
       <c r="M13" s="8">
         <v>20</v>
       </c>
-      <c r="N13" s="25">
-        <v>1545.11</v>
+      <c r="N13" s="8">
+        <v>0</v>
       </c>
       <c r="O13" s="8">
         <v>80</v>
       </c>
       <c r="P13" s="7">
         <f t="shared" si="3"/>
-        <v>2337.1099999999997</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="8">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="2"/>
-        <v>-1687.1099999999997</v>
+        <v>-532</v>
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -7974,15 +7716,13 @@
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>106</v>
-      </c>
+      <c r="E14" s="28"/>
       <c r="F14" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="16">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="0"/>
@@ -7990,7 +7730,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K14" s="8">
         <v>80</v>
@@ -8001,7 +7741,7 @@
       <c r="M14" s="8">
         <v>20</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="8">
         <v>0</v>
       </c>
       <c r="O14" s="8">
@@ -8009,29 +7749,29 @@
       </c>
       <c r="P14" s="7">
         <f t="shared" si="3"/>
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="8">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="2"/>
-        <v>-32</v>
+        <v>-200</v>
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6">
         <v>0</v>
       </c>
@@ -8056,7 +7796,7 @@
       <c r="M15" s="8">
         <v>20</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="8">
         <v>0</v>
       </c>
       <c r="O15" s="8">
@@ -8075,7 +7815,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -8115,7 +7855,7 @@
       <c r="M16" s="8">
         <v>20</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="8">
         <v>0</v>
       </c>
       <c r="O16" s="8">
@@ -8134,7 +7874,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -8147,15 +7887,13 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>109</v>
-      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="6">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="0"/>
@@ -8163,7 +7901,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <v>80</v>
@@ -8174,7 +7912,7 @@
       <c r="M17" s="8">
         <v>20</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="8">
         <v>0</v>
       </c>
       <c r="O17" s="8">
@@ -8182,18 +7920,18 @@
       </c>
       <c r="P17" s="7">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="8">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="2"/>
-        <v>-44</v>
+        <v>-200</v>
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -8206,15 +7944,15 @@
       <c r="D18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>111</v>
+      <c r="E18" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F18" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="16">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="0"/>
@@ -8222,7 +7960,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K18" s="8">
         <v>80</v>
@@ -8233,7 +7971,7 @@
       <c r="M18" s="8">
         <v>20</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="8">
         <v>0</v>
       </c>
       <c r="O18" s="8">
@@ -8241,18 +7979,18 @@
       </c>
       <c r="P18" s="7">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="8">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="2"/>
-        <v>440</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -8265,7 +8003,7 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="6">
         <v>0</v>
       </c>
@@ -8290,26 +8028,26 @@
       <c r="M19" s="8">
         <v>20</v>
       </c>
-      <c r="N19" s="25">
-        <v>594</v>
+      <c r="N19" s="8">
+        <v>0</v>
       </c>
       <c r="O19" s="8">
         <v>80</v>
       </c>
       <c r="P19" s="7">
         <f t="shared" si="3"/>
-        <v>794</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="8">
         <v>0</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="2"/>
-        <v>-794</v>
+        <v>-200</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -8322,15 +8060,15 @@
       <c r="D20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>112</v>
+      <c r="E20" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F20" s="6">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="0"/>
@@ -8338,7 +8076,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K20" s="8">
         <v>400</v>
@@ -8349,7 +8087,7 @@
       <c r="M20" s="8">
         <v>20</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="8">
         <v>0</v>
       </c>
       <c r="O20" s="8">
@@ -8357,18 +8095,18 @@
       </c>
       <c r="P20" s="7">
         <f t="shared" si="3"/>
-        <v>832</v>
+        <v>532</v>
       </c>
       <c r="Q20" s="8">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>-532</v>
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -8382,14 +8120,14 @@
         <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="16">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="0"/>
@@ -8397,7 +8135,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K21" s="8">
         <v>400</v>
@@ -8408,7 +8146,7 @@
       <c r="M21" s="8">
         <v>20</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="8">
         <v>0</v>
       </c>
       <c r="O21" s="8">
@@ -8416,18 +8154,18 @@
       </c>
       <c r="P21" s="7">
         <f t="shared" si="3"/>
-        <v>832</v>
+        <v>532</v>
       </c>
       <c r="Q21" s="8">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>-532</v>
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -8453,7 +8191,7 @@
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="8">
         <v>0</v>
       </c>
       <c r="O22" s="8">
@@ -8472,7 +8210,7 @@
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -8498,7 +8236,7 @@
       <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="8">
         <v>0</v>
       </c>
       <c r="O23" s="8">
@@ -8517,7 +8255,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -8543,7 +8281,7 @@
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="25"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="8">
         <v>0</v>
       </c>
@@ -8558,7 +8296,7 @@
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -8579,63 +8317,63 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="11">
         <f>SUM(F7:F24)</f>
-        <v>4684</v>
+        <v>0</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="18">
         <f>SUM(H7:H24)</f>
-        <v>1533</v>
+        <v>0</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="12">
         <f>SUM(J7:J24)</f>
-        <v>3066</v>
-      </c>
-      <c r="K26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29">
         <f>SUM(K7:K21)</f>
         <v>3120</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="29">
         <f>SUM(L7:L21)</f>
         <v>360</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
         <v>300</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="29">
         <f>SUM(N7:N23)</f>
-        <v>2139.1099999999997</v>
-      </c>
-      <c r="O26" s="20">
+        <v>0</v>
+      </c>
+      <c r="O26" s="29">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="P26" s="12">
         <f>SUM(P7:P24)</f>
-        <v>10185.11</v>
+        <v>4980</v>
       </c>
       <c r="Q26" s="12">
         <f>SUM(Q7:Q24)</f>
-        <v>8062</v>
+        <v>0</v>
       </c>
       <c r="R26" s="12">
         <f>SUM(R7:R24)</f>
-        <v>-2123.1099999999997</v>
+        <v>-4980</v>
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
@@ -8645,19 +8383,19 @@
       <c r="J27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
+      <c r="L27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -8672,15 +8410,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8689,14 +8427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECFA5A9-AAC8-42A7-A294-5D87BBAD1379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -8705,92 +8443,92 @@
     <col min="6" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="14">
-        <v>46062</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
+        <v>46058</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -8849,7 +8587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -8863,21 +8601,22 @@
         <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="F7" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="17">
+        <f t="shared" ref="I7:I24" si="0">$F$3</f>
         <v>2</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" ref="J7:J24" si="0">IF(OR(H7="",I7=""),0,H7*I7)</f>
-        <v>10</v>
+        <f t="shared" ref="J7:J24" si="1">IF(OR(H7="",I7=""),0,H7*I7)</f>
+        <v>0</v>
       </c>
       <c r="K7" s="8">
         <v>400</v>
@@ -8896,18 +8635,18 @@
       </c>
       <c r="P7" s="7">
         <f>J7+N(K7)+N(L7)+N(M7)+N(O7)+N7</f>
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" ref="R7:R24" si="1">IF(Q7="","",N(Q7)-P7)</f>
-        <v>-392</v>
+        <f t="shared" ref="R7:R24" si="2">IF(Q7="","",N(Q7)-P7)</f>
+        <v>-532</v>
       </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -8921,21 +8660,22 @@
         <v>65</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F8" s="6">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="17">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K8" s="8">
         <v>400</v>
@@ -8953,21 +8693,19 @@
         <v>80</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" ref="P8:P24" si="2">J8+N(K8)+N(L8)+N(M8)+N(O8)+N8</f>
-        <v>732</v>
+        <f t="shared" ref="P8:P24" si="3">J8+N(K8)+N(L8)+N(M8)+N(O8)+N8</f>
+        <v>532</v>
       </c>
       <c r="Q8" s="8">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="1"/>
-        <v>218</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-532</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -8980,7 +8718,9 @@
       <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
@@ -8989,11 +8729,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="17">
-        <f t="shared" ref="I7:I24" si="3">$F$3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="8">
@@ -9012,21 +8752,19 @@
         <v>80</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="Q9" s="8">
         <v>0</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-200</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -9040,22 +8778,22 @@
         <v>65</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F10" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K10" s="8">
         <v>80</v>
@@ -9073,19 +8811,19 @@
         <v>80</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="2"/>
-        <v>210</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="Q10" s="8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="1"/>
-        <v>-60</v>
+        <f t="shared" si="2"/>
+        <v>-200</v>
       </c>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -9099,54 +8837,52 @@
         <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>80</v>
+      </c>
+      <c r="L11" s="8">
+        <v>20</v>
+      </c>
+      <c r="M11" s="8">
+        <v>20</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>80</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="I11" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="K11" s="8">
-        <v>80</v>
-      </c>
-      <c r="L11" s="8">
-        <v>20</v>
-      </c>
-      <c r="M11" s="8">
-        <v>20</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>80</v>
-      </c>
-      <c r="P11" s="7">
-        <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
       <c r="Q11" s="8">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-200</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -9160,22 +8896,22 @@
         <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="16">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I12" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <v>400</v>
@@ -9193,19 +8929,19 @@
         <v>80</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="2"/>
-        <v>740</v>
+        <f t="shared" si="3"/>
+        <v>520</v>
       </c>
       <c r="Q12" s="8">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" si="1"/>
-        <v>-149</v>
+        <f t="shared" si="2"/>
+        <v>-520</v>
       </c>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -9219,22 +8955,22 @@
         <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="6">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="16">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I13" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
         <v>400</v>
@@ -9252,24 +8988,24 @@
         <v>80</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="2"/>
-        <v>752</v>
+        <f t="shared" si="3"/>
+        <v>532</v>
       </c>
       <c r="Q13" s="8">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="1"/>
-        <v>-161</v>
+        <f t="shared" si="2"/>
+        <v>-532</v>
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>44</v>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -9277,23 +9013,21 @@
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>75</v>
-      </c>
+      <c r="E14" s="28"/>
       <c r="F14" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I14" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K14" s="8">
         <v>80</v>
@@ -9311,32 +9045,30 @@
         <v>80</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="2"/>
-        <v>260</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="Q14" s="8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="1"/>
-        <v>-60</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>-200</v>
+      </c>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="6">
         <v>0</v>
       </c>
@@ -9345,11 +9077,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="8">
@@ -9368,19 +9100,19 @@
         <v>80</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="Q15" s="8">
         <v>0</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-200</v>
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -9393,7 +9125,9 @@
       <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
@@ -9402,11 +9136,11 @@
         <v>0</v>
       </c>
       <c r="I16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="8">
@@ -9425,19 +9159,19 @@
         <v>80</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="Q16" s="8">
         <v>0</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-200</v>
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -9450,23 +9184,21 @@
       <c r="D17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>123</v>
-      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="6">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="0"/>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <v>80</v>
@@ -9484,19 +9216,19 @@
         <v>80</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="2"/>
-        <v>380</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="Q17" s="8">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>-200</v>
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -9510,22 +9242,22 @@
         <v>66</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F18" s="6">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="16">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K18" s="8">
         <v>80</v>
@@ -9543,19 +9275,19 @@
         <v>80</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="2"/>
-        <v>340</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="Q18" s="8">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="1"/>
-        <v>480</v>
+        <f t="shared" si="2"/>
+        <v>-200</v>
       </c>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -9568,23 +9300,21 @@
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="E19" s="28"/>
       <c r="F19" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="16">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="0"/>
-        <v>136</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K19" s="8">
         <v>80</v>
@@ -9602,19 +9332,19 @@
         <v>80</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="2"/>
-        <v>336</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="Q19" s="8">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="1"/>
-        <v>164</v>
+        <f t="shared" si="2"/>
+        <v>-200</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -9628,22 +9358,22 @@
         <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F20" s="6">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K20" s="8">
         <v>400</v>
@@ -9661,19 +9391,19 @@
         <v>80</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="2"/>
-        <v>752</v>
+        <f t="shared" si="3"/>
+        <v>532</v>
       </c>
       <c r="Q20" s="8">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="1"/>
-        <v>226</v>
+        <f t="shared" si="2"/>
+        <v>-532</v>
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -9687,22 +9417,22 @@
         <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="16">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I21" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K21" s="8">
         <v>400</v>
@@ -9720,19 +9450,19 @@
         <v>80</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="2"/>
-        <v>752</v>
+        <f t="shared" si="3"/>
+        <v>532</v>
       </c>
       <c r="Q21" s="8">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="1"/>
-        <v>226</v>
+        <f t="shared" si="2"/>
+        <v>-532</v>
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -9744,11 +9474,11 @@
       <c r="G22" s="6"/>
       <c r="H22" s="16"/>
       <c r="I22" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="8"/>
@@ -9765,19 +9495,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q22" s="8">
         <v>0</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -9789,11 +9519,11 @@
       <c r="G23" s="6"/>
       <c r="H23" s="16"/>
       <c r="I23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="8"/>
@@ -9810,19 +9540,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q23" s="8">
         <v>0</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -9834,11 +9564,11 @@
       <c r="G24" s="6"/>
       <c r="H24" s="16"/>
       <c r="I24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="8"/>
@@ -9853,17 +9583,17 @@
         <v>0</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9884,63 +9614,63 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:19" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="11">
         <f>SUM(F7:F24)</f>
-        <v>2870</v>
+        <v>0</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="18">
         <f>SUM(H7:H24)</f>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="12">
         <f>SUM(J7:J24)</f>
-        <v>2016</v>
-      </c>
-      <c r="K26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29">
         <f>SUM(K7:K21)</f>
         <v>3120</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="29">
         <f>SUM(L7:L21)</f>
         <v>360</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="29">
         <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
         <v>300</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="29">
         <f>SUM(N7:N23)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="29">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="P26" s="12">
         <f>SUM(P7:P24)</f>
-        <v>6996</v>
+        <v>4980</v>
       </c>
       <c r="Q26" s="12">
         <f>SUM(Q7:Q24)</f>
-        <v>7338</v>
+        <v>0</v>
       </c>
       <c r="R26" s="12">
         <f>SUM(R7:R24)</f>
-        <v>342</v>
+        <v>-4980</v>
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
@@ -9950,19 +9680,19 @@
       <c r="J27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
+      <c r="L27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="P27" s="13" t="s">
@@ -9985,7 +9715,7 @@
     <mergeCell ref="A26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9994,2715 +9724,60 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="1" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="14">
-        <v>46058</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="15">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" ref="I7:I24" si="0">$F$3</f>
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J24" si="1">IF(OR(H7="",I7=""),0,H7*I7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>400</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="8">
-        <v>20</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>80</v>
-      </c>
-      <c r="P7" s="7">
-        <f>J7+N(K7)+N(L7)+N(M7)+N(O7)+N7</f>
-        <v>532</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" ref="R7:R24" si="2">IF(Q7="","",N(Q7)-P7)</f>
-        <v>-532</v>
-      </c>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>400</v>
-      </c>
-      <c r="L8" s="8">
-        <v>32</v>
-      </c>
-      <c r="M8" s="8">
-        <v>20</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>80</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" ref="P8:P24" si="3">J8+N(K8)+N(L8)+N(M8)+N(O8)+N8</f>
-        <v>532</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <f t="shared" si="2"/>
-        <v>-532</v>
-      </c>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>80</v>
-      </c>
-      <c r="L9" s="8">
-        <v>20</v>
-      </c>
-      <c r="M9" s="8">
-        <v>20</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>80</v>
-      </c>
-      <c r="P9" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>80</v>
-      </c>
-      <c r="L10" s="8">
-        <v>20</v>
-      </c>
-      <c r="M10" s="8">
-        <v>20</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>80</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>80</v>
-      </c>
-      <c r="L11" s="8">
-        <v>20</v>
-      </c>
-      <c r="M11" s="8">
-        <v>20</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>80</v>
-      </c>
-      <c r="P11" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>400</v>
-      </c>
-      <c r="L12" s="8">
-        <v>20</v>
-      </c>
-      <c r="M12" s="8">
-        <v>20</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>80</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <f t="shared" si="2"/>
-        <v>-520</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>400</v>
-      </c>
-      <c r="L13" s="8">
-        <v>32</v>
-      </c>
-      <c r="M13" s="8">
-        <v>20</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>80</v>
-      </c>
-      <c r="P13" s="7">
-        <f t="shared" si="3"/>
-        <v>532</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <f t="shared" si="2"/>
-        <v>-532</v>
-      </c>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>80</v>
-      </c>
-      <c r="L14" s="8">
-        <v>20</v>
-      </c>
-      <c r="M14" s="8">
-        <v>20</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>80</v>
-      </c>
-      <c r="P14" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>80</v>
-      </c>
-      <c r="L15" s="8">
-        <v>20</v>
-      </c>
-      <c r="M15" s="8">
-        <v>20</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>80</v>
-      </c>
-      <c r="P15" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>80</v>
-      </c>
-      <c r="L16" s="8">
-        <v>20</v>
-      </c>
-      <c r="M16" s="8">
-        <v>20</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>80</v>
-      </c>
-      <c r="P16" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>80</v>
-      </c>
-      <c r="L17" s="8">
-        <v>20</v>
-      </c>
-      <c r="M17" s="8">
-        <v>20</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>80</v>
-      </c>
-      <c r="P17" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>80</v>
-      </c>
-      <c r="L18" s="8">
-        <v>20</v>
-      </c>
-      <c r="M18" s="8">
-        <v>20</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>80</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>80</v>
-      </c>
-      <c r="L19" s="8">
-        <v>20</v>
-      </c>
-      <c r="M19" s="8">
-        <v>20</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>80</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>400</v>
-      </c>
-      <c r="L20" s="8">
-        <v>32</v>
-      </c>
-      <c r="M20" s="8">
-        <v>20</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>80</v>
-      </c>
-      <c r="P20" s="7">
-        <f t="shared" si="3"/>
-        <v>532</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <f t="shared" si="2"/>
-        <v>-532</v>
-      </c>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="16">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>400</v>
-      </c>
-      <c r="L21" s="8">
-        <v>32</v>
-      </c>
-      <c r="M21" s="8">
-        <v>20</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>80</v>
-      </c>
-      <c r="P21" s="7">
-        <f t="shared" si="3"/>
-        <v>532</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <f t="shared" si="2"/>
-        <v>-532</v>
-      </c>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="11">
-        <f>SUM(F7:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="18">
-        <f>SUM(H7:H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12">
-        <f>SUM(J7:J24)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="20">
-        <f>SUM(K7:K21)</f>
-        <v>3120</v>
-      </c>
-      <c r="L26" s="20">
-        <f>SUM(L7:L21)</f>
-        <v>360</v>
-      </c>
-      <c r="M26" s="20">
-        <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
-        <v>300</v>
-      </c>
-      <c r="N26" s="20">
-        <f>SUM(N7:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="20">
-        <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="P26" s="12">
-        <f>SUM(P7:P24)</f>
-        <v>4980</v>
-      </c>
-      <c r="Q26" s="12">
-        <f>SUM(Q7:Q24)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="12">
-        <f>SUM(R7:R24)</f>
-        <v>-4980</v>
-      </c>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" s="13" t="s">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>29</v>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:S4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S27"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="14">
-        <v>46054</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="15">
-        <v>2</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-    </row>
-    <row r="5" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="6">
-        <f>'02-02-26'!F7+'03-02-26'!F7+'04-02-26'!F7+'05-02-26'!F7+'06-02-26'!F7</f>
-        <v>1344</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="16">
-        <f>'02-02-26'!H7+'03-02-26'!H7+'04-02-26'!H7+'05-02-26'!H7+'06-02-26'!H7</f>
-        <v>405</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" ref="I7:I24" si="0">$F$3</f>
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J24" si="1">IF(OR(H7="",I7=""),0,H7*I7)</f>
-        <v>810</v>
-      </c>
-      <c r="K7" s="8">
-        <f>'02-02-26'!K7+'03-02-26'!K7+'04-02-26'!K7+'05-02-26'!K7+'06-02-26'!K7</f>
-        <v>2000</v>
-      </c>
-      <c r="L7" s="8">
-        <f>'02-02-26'!L7+'03-02-26'!L7+'04-02-26'!L7+'05-02-26'!L7+'06-02-26'!L7</f>
-        <v>160</v>
-      </c>
-      <c r="M7" s="8">
-        <f>'02-02-26'!M7+'03-02-26'!M7+'04-02-26'!L7+'05-02-26'!M7+'06-02-26'!M7</f>
-        <v>112</v>
-      </c>
-      <c r="N7" s="8">
-        <f>'02-02-26'!N7+'03-02-26'!N7+'04-02-26'!N7+'05-02-26'!N7+'06-02-26'!N7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <f>'02-02-26'!O7+'03-02-26'!O7+'04-02-26'!O7+'05-02-26'!O7+'06-02-26'!O7</f>
-        <v>400</v>
-      </c>
-      <c r="P7" s="7">
-        <f>J7+N(K7)+N(L7)+N(M7)+N(O7)+N7</f>
-        <v>3482</v>
-      </c>
-      <c r="Q7" s="8">
-        <f>'02-02-26'!Q7+'03-02-26'!Q7+'04-02-26'!Q7+'05-02-26'!Q7+'06-02-26'!Q7</f>
-        <v>1258</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" ref="R7:R24" si="2">IF(Q7="","",N(Q7)-P7)</f>
-        <v>-2224</v>
-      </c>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="6">
-        <f>'02-02-26'!F8+'03-02-26'!F8+'04-02-26'!F8+'05-02-26'!F8+'06-02-26'!F8</f>
-        <v>2354</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="16">
-        <f>'02-02-26'!H8+'03-02-26'!H8+'04-02-26'!H8+'05-02-26'!H8+'06-02-26'!H8</f>
-        <v>700</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="K8" s="8">
-        <f>'02-02-26'!K8+'03-02-26'!K8+'04-02-26'!K8+'05-02-26'!K8+'06-02-26'!K8</f>
-        <v>2000</v>
-      </c>
-      <c r="L8" s="8">
-        <f>'02-02-26'!L8+'03-02-26'!L8+'04-02-26'!L8+'05-02-26'!L8+'06-02-26'!L8</f>
-        <v>160</v>
-      </c>
-      <c r="M8" s="8">
-        <f>'02-02-26'!M8+'03-02-26'!M8+'04-02-26'!L8+'05-02-26'!M8+'06-02-26'!M8</f>
-        <v>112</v>
-      </c>
-      <c r="N8" s="8">
-        <f>'02-02-26'!N8+'03-02-26'!N8+'04-02-26'!N8+'05-02-26'!N8+'06-02-26'!N8</f>
-        <v>2136</v>
-      </c>
-      <c r="O8" s="8">
-        <f>'02-02-26'!O8+'03-02-26'!O8+'04-02-26'!O8+'05-02-26'!O8+'06-02-26'!O8</f>
-        <v>400</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" ref="P8:P24" si="3">J8+N(K8)+N(L8)+N(M8)+N(O8)+N8</f>
-        <v>6208</v>
-      </c>
-      <c r="Q8" s="8">
-        <f>'02-02-26'!Q8+'03-02-26'!Q8+'04-02-26'!Q8+'05-02-26'!Q8+'06-02-26'!Q8</f>
-        <v>3015</v>
-      </c>
-      <c r="R8" s="7">
-        <f t="shared" si="2"/>
-        <v>-3193</v>
-      </c>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="6">
-        <f>'02-02-26'!F9+'03-02-26'!F9+'04-02-26'!F9+'05-02-26'!F9+'06-02-26'!F9</f>
-        <v>794</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="16">
-        <f>'02-02-26'!H9+'03-02-26'!H9+'04-02-26'!H9+'05-02-26'!H9+'06-02-26'!H9</f>
-        <v>295</v>
-      </c>
-      <c r="I9" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="1"/>
-        <v>590</v>
-      </c>
-      <c r="K9" s="8">
-        <f>'02-02-26'!K9+'03-02-26'!K9+'04-02-26'!K9+'05-02-26'!K9+'06-02-26'!K9</f>
-        <v>400</v>
-      </c>
-      <c r="L9" s="8">
-        <f>'02-02-26'!L9+'03-02-26'!L9+'04-02-26'!L9+'05-02-26'!L9+'06-02-26'!L9</f>
-        <v>100</v>
-      </c>
-      <c r="M9" s="8">
-        <f>'02-02-26'!M9+'03-02-26'!M9+'04-02-26'!L9+'05-02-26'!M9+'06-02-26'!M9</f>
-        <v>100</v>
-      </c>
-      <c r="N9" s="8">
-        <f>'02-02-26'!N9+'03-02-26'!N9+'04-02-26'!N9+'05-02-26'!N9+'06-02-26'!N9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <f>'02-02-26'!O9+'03-02-26'!O9+'04-02-26'!O9+'05-02-26'!O9+'06-02-26'!O9</f>
-        <v>400</v>
-      </c>
-      <c r="P9" s="7">
-        <f t="shared" si="3"/>
-        <v>1590</v>
-      </c>
-      <c r="Q9" s="8">
-        <f>'02-02-26'!Q9+'03-02-26'!Q9+'04-02-26'!Q9+'05-02-26'!Q9+'06-02-26'!Q9</f>
-        <v>1301</v>
-      </c>
-      <c r="R9" s="7">
-        <f t="shared" si="2"/>
-        <v>-289</v>
-      </c>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="6">
-        <f>'02-02-26'!F10+'03-02-26'!F10+'04-02-26'!F10+'05-02-26'!F10+'06-02-26'!F10</f>
-        <v>1480</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="16">
-        <f>'02-02-26'!H10+'03-02-26'!H10+'04-02-26'!H10+'05-02-26'!H10+'06-02-26'!H10</f>
-        <v>480</v>
-      </c>
-      <c r="I10" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="K10" s="8">
-        <f>'02-02-26'!K10+'03-02-26'!K10+'04-02-26'!K10+'05-02-26'!K10+'06-02-26'!K10</f>
-        <v>400</v>
-      </c>
-      <c r="L10" s="8">
-        <f>'02-02-26'!L10+'03-02-26'!L10+'04-02-26'!L10+'05-02-26'!L10+'06-02-26'!L10</f>
-        <v>100</v>
-      </c>
-      <c r="M10" s="8">
-        <f>'02-02-26'!M10+'03-02-26'!M10+'04-02-26'!L10+'05-02-26'!M10+'06-02-26'!M10</f>
-        <v>100</v>
-      </c>
-      <c r="N10" s="8">
-        <f>'02-02-26'!N10+'03-02-26'!N10+'04-02-26'!N10+'05-02-26'!N10+'06-02-26'!N10</f>
-        <v>1225.2239999999999</v>
-      </c>
-      <c r="O10" s="8">
-        <f>'02-02-26'!O10+'03-02-26'!O10+'04-02-26'!O10+'05-02-26'!O10+'06-02-26'!O10</f>
-        <v>400</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="3"/>
-        <v>3185.2240000000002</v>
-      </c>
-      <c r="Q10" s="8">
-        <f>'02-02-26'!Q10+'03-02-26'!Q10+'04-02-26'!Q10+'05-02-26'!Q10+'06-02-26'!Q10</f>
-        <v>2287</v>
-      </c>
-      <c r="R10" s="7">
-        <f t="shared" si="2"/>
-        <v>-898.22400000000016</v>
-      </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="6">
-        <f>'02-02-26'!F11+'03-02-26'!F11+'04-02-26'!F11+'05-02-26'!F11+'06-02-26'!F11</f>
-        <v>1144</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="16">
-        <f>'02-02-26'!H11+'03-02-26'!H11+'04-02-26'!H11+'05-02-26'!H11+'06-02-26'!H11</f>
-        <v>355</v>
-      </c>
-      <c r="I11" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="1"/>
-        <v>710</v>
-      </c>
-      <c r="K11" s="8">
-        <f>'02-02-26'!K11+'03-02-26'!K11+'04-02-26'!K11+'05-02-26'!K11+'06-02-26'!K11</f>
-        <v>400</v>
-      </c>
-      <c r="L11" s="8">
-        <f>'02-02-26'!L11+'03-02-26'!L11+'04-02-26'!L11+'05-02-26'!L11+'06-02-26'!L11</f>
-        <v>100</v>
-      </c>
-      <c r="M11" s="8">
-        <f>'02-02-26'!M11+'03-02-26'!M11+'04-02-26'!L11+'05-02-26'!M11+'06-02-26'!M11</f>
-        <v>100</v>
-      </c>
-      <c r="N11" s="8">
-        <f>'02-02-26'!N11+'03-02-26'!N11+'04-02-26'!N11+'05-02-26'!N11+'06-02-26'!N11</f>
-        <v>420.95699999999999</v>
-      </c>
-      <c r="O11" s="8">
-        <f>'02-02-26'!O11+'03-02-26'!O11+'04-02-26'!O11+'05-02-26'!O11+'06-02-26'!O11</f>
-        <v>400</v>
-      </c>
-      <c r="P11" s="7">
-        <f t="shared" si="3"/>
-        <v>2130.9569999999999</v>
-      </c>
-      <c r="Q11" s="8">
-        <f>'02-02-26'!Q11+'03-02-26'!Q11+'04-02-26'!Q11+'05-02-26'!Q11+'06-02-26'!Q11</f>
-        <v>1768</v>
-      </c>
-      <c r="R11" s="7">
-        <f t="shared" si="2"/>
-        <v>-362.95699999999988</v>
-      </c>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="6">
-        <f>'02-02-26'!F12+'03-02-26'!F12+'04-02-26'!F12+'05-02-26'!F12+'06-02-26'!F12</f>
-        <v>2180</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="16">
-        <f>'02-02-26'!H12+'03-02-26'!H12+'04-02-26'!H12+'05-02-26'!H12+'06-02-26'!H12</f>
-        <v>650</v>
-      </c>
-      <c r="I12" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="1"/>
-        <v>1300</v>
-      </c>
-      <c r="K12" s="8">
-        <f>'02-02-26'!K12+'03-02-26'!K12+'04-02-26'!K12+'05-02-26'!K12+'06-02-26'!K12</f>
-        <v>2000</v>
-      </c>
-      <c r="L12" s="8">
-        <f>'02-02-26'!L12+'03-02-26'!L12+'04-02-26'!L12+'05-02-26'!L12+'06-02-26'!L12</f>
-        <v>100</v>
-      </c>
-      <c r="M12" s="8">
-        <f>'02-02-26'!M12+'03-02-26'!M12+'04-02-26'!L12+'05-02-26'!M12+'06-02-26'!M12</f>
-        <v>100</v>
-      </c>
-      <c r="N12" s="8">
-        <f>'02-02-26'!N12+'03-02-26'!N12+'04-02-26'!N12+'05-02-26'!N12+'06-02-26'!N12</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <f>'02-02-26'!O12+'03-02-26'!O12+'04-02-26'!O12+'05-02-26'!O12+'06-02-26'!O12</f>
-        <v>400</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="3"/>
-        <v>3900</v>
-      </c>
-      <c r="Q12" s="8">
-        <f>'02-02-26'!Q12+'03-02-26'!Q12+'04-02-26'!Q12+'05-02-26'!Q12+'06-02-26'!Q12</f>
-        <v>3691</v>
-      </c>
-      <c r="R12" s="7">
-        <f t="shared" si="2"/>
-        <v>-209</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="6">
-        <f>'02-02-26'!F13+'03-02-26'!F13+'04-02-26'!F13+'05-02-26'!F13+'06-02-26'!F13</f>
-        <v>2090</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="16">
-        <f>'02-02-26'!H13+'03-02-26'!H13+'04-02-26'!H13+'05-02-26'!H13+'06-02-26'!H13</f>
-        <v>645</v>
-      </c>
-      <c r="I13" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="1"/>
-        <v>1290</v>
-      </c>
-      <c r="K13" s="8">
-        <f>'02-02-26'!K13+'03-02-26'!K13+'04-02-26'!K13+'05-02-26'!K13+'06-02-26'!K13</f>
-        <v>2000</v>
-      </c>
-      <c r="L13" s="8">
-        <f>'02-02-26'!L13+'03-02-26'!L13+'04-02-26'!L13+'05-02-26'!L13+'06-02-26'!L13</f>
-        <v>160</v>
-      </c>
-      <c r="M13" s="8">
-        <f>'02-02-26'!M13+'03-02-26'!M13+'04-02-26'!L13+'05-02-26'!M13+'06-02-26'!M13</f>
-        <v>112</v>
-      </c>
-      <c r="N13" s="8">
-        <f>'02-02-26'!N13+'03-02-26'!N13+'04-02-26'!N13+'05-02-26'!N13+'06-02-26'!N13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <f>'02-02-26'!O13+'03-02-26'!O13+'04-02-26'!O13+'05-02-26'!O13+'06-02-26'!O13</f>
-        <v>400</v>
-      </c>
-      <c r="P13" s="7">
-        <f t="shared" si="3"/>
-        <v>3962</v>
-      </c>
-      <c r="Q13" s="8">
-        <f>'02-02-26'!Q13+'03-02-26'!Q13+'04-02-26'!Q13+'05-02-26'!Q13+'06-02-26'!Q13</f>
-        <v>2620</v>
-      </c>
-      <c r="R13" s="7">
-        <f t="shared" si="2"/>
-        <v>-1342</v>
-      </c>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="6">
-        <f>'02-02-26'!F14+'03-02-26'!F14+'04-02-26'!F14+'05-02-26'!F14+'06-02-26'!F14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="16">
-        <f>'02-02-26'!H14+'03-02-26'!H14+'04-02-26'!H14+'05-02-26'!H14+'06-02-26'!H14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <f>'02-02-26'!K14+'03-02-26'!K14+'04-02-26'!K14+'05-02-26'!K14+'06-02-26'!K14</f>
-        <v>400</v>
-      </c>
-      <c r="L14" s="8">
-        <f>'02-02-26'!L14+'03-02-26'!L14+'04-02-26'!L14+'05-02-26'!L14+'06-02-26'!L14</f>
-        <v>100</v>
-      </c>
-      <c r="M14" s="8">
-        <f>'02-02-26'!M14+'03-02-26'!M14+'04-02-26'!L14+'05-02-26'!M14+'06-02-26'!M14</f>
-        <v>100</v>
-      </c>
-      <c r="N14" s="8">
-        <f>'02-02-26'!N14+'03-02-26'!N14+'04-02-26'!N14+'05-02-26'!N14+'06-02-26'!N14</f>
-        <v>620</v>
-      </c>
-      <c r="O14" s="8">
-        <f>'02-02-26'!O14+'03-02-26'!O14+'04-02-26'!O14+'05-02-26'!O14+'06-02-26'!O14</f>
-        <v>400</v>
-      </c>
-      <c r="P14" s="7">
-        <f t="shared" si="3"/>
-        <v>1620</v>
-      </c>
-      <c r="Q14" s="8">
-        <f>'02-02-26'!Q14+'03-02-26'!Q14+'04-02-26'!Q14+'05-02-26'!Q14+'06-02-26'!Q14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <f t="shared" si="2"/>
-        <v>-1620</v>
-      </c>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="6">
-        <f>'02-02-26'!F15+'03-02-26'!F15+'04-02-26'!F15+'05-02-26'!F15+'06-02-26'!F15</f>
-        <v>260</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="16">
-        <f>'02-02-26'!H15+'03-02-26'!H15+'04-02-26'!H15+'05-02-26'!H15+'06-02-26'!H15</f>
-        <v>80</v>
-      </c>
-      <c r="I15" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="K15" s="8">
-        <f>'02-02-26'!K15+'03-02-26'!K15+'04-02-26'!K15+'05-02-26'!K15+'06-02-26'!K15</f>
-        <v>400</v>
-      </c>
-      <c r="L15" s="8">
-        <f>'02-02-26'!L15+'03-02-26'!L15+'04-02-26'!L15+'05-02-26'!L15+'06-02-26'!L15</f>
-        <v>100</v>
-      </c>
-      <c r="M15" s="8">
-        <f>'02-02-26'!M15+'03-02-26'!M15+'04-02-26'!L15+'05-02-26'!M15+'06-02-26'!M15</f>
-        <v>100</v>
-      </c>
-      <c r="N15" s="8">
-        <f>'02-02-26'!N15+'03-02-26'!N15+'04-02-26'!N15+'05-02-26'!N15+'06-02-26'!N15</f>
-        <v>446.25</v>
-      </c>
-      <c r="O15" s="8">
-        <f>'02-02-26'!O15+'03-02-26'!O15+'04-02-26'!O15+'05-02-26'!O15+'06-02-26'!O15</f>
-        <v>400</v>
-      </c>
-      <c r="P15" s="7">
-        <f t="shared" si="3"/>
-        <v>1606.25</v>
-      </c>
-      <c r="Q15" s="8">
-        <f>'02-02-26'!Q15+'03-02-26'!Q15+'04-02-26'!Q15+'05-02-26'!Q15+'06-02-26'!Q15</f>
-        <v>544</v>
-      </c>
-      <c r="R15" s="7">
-        <f t="shared" si="2"/>
-        <v>-1062.25</v>
-      </c>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="6">
-        <f>'02-02-26'!F16+'03-02-26'!F16+'04-02-26'!F16+'05-02-26'!F16+'06-02-26'!F16</f>
-        <v>160</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="16">
-        <f>'02-02-26'!H16+'03-02-26'!H16+'04-02-26'!H16+'05-02-26'!H16+'06-02-26'!H16</f>
-        <v>60</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="K16" s="8">
-        <f>'02-02-26'!K16+'03-02-26'!K16+'04-02-26'!K16+'05-02-26'!K16+'06-02-26'!K16</f>
-        <v>400</v>
-      </c>
-      <c r="L16" s="8">
-        <f>'02-02-26'!L16+'03-02-26'!L16+'04-02-26'!L16+'05-02-26'!L16+'06-02-26'!L16</f>
-        <v>100</v>
-      </c>
-      <c r="M16" s="8">
-        <f>'02-02-26'!M16+'03-02-26'!M16+'04-02-26'!L16+'05-02-26'!M16+'06-02-26'!M16</f>
-        <v>100</v>
-      </c>
-      <c r="N16" s="8">
-        <f>'02-02-26'!N16+'03-02-26'!N16+'04-02-26'!N16+'05-02-26'!N16+'06-02-26'!N16</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <f>'02-02-26'!O16+'03-02-26'!O16+'04-02-26'!O16+'05-02-26'!O16+'06-02-26'!O16</f>
-        <v>400</v>
-      </c>
-      <c r="P16" s="7">
-        <f t="shared" si="3"/>
-        <v>1120</v>
-      </c>
-      <c r="Q16" s="8">
-        <f>'02-02-26'!Q16+'03-02-26'!Q16+'04-02-26'!Q16+'05-02-26'!Q16+'06-02-26'!Q16</f>
-        <v>400</v>
-      </c>
-      <c r="R16" s="7">
-        <f t="shared" si="2"/>
-        <v>-720</v>
-      </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="6">
-        <f>'02-02-26'!F17+'03-02-26'!F17+'04-02-26'!F17+'05-02-26'!F17+'06-02-26'!F17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="16">
-        <f>'02-02-26'!H17+'03-02-26'!H17+'04-02-26'!H17+'05-02-26'!H17+'06-02-26'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <f>'02-02-26'!K17+'03-02-26'!K17+'04-02-26'!K17+'05-02-26'!K17+'06-02-26'!K17</f>
-        <v>400</v>
-      </c>
-      <c r="L17" s="8">
-        <f>'02-02-26'!L17+'03-02-26'!L17+'04-02-26'!L17+'05-02-26'!L17+'06-02-26'!L17</f>
-        <v>100</v>
-      </c>
-      <c r="M17" s="8">
-        <f>'02-02-26'!M17+'03-02-26'!M17+'04-02-26'!L17+'05-02-26'!M17+'06-02-26'!M17</f>
-        <v>100</v>
-      </c>
-      <c r="N17" s="8">
-        <f>'02-02-26'!N17+'03-02-26'!N17+'04-02-26'!N17+'05-02-26'!N17+'06-02-26'!N17</f>
-        <v>1123.479</v>
-      </c>
-      <c r="O17" s="8">
-        <f>'02-02-26'!O17+'03-02-26'!O17+'04-02-26'!O17+'05-02-26'!O17+'06-02-26'!O17</f>
-        <v>400</v>
-      </c>
-      <c r="P17" s="7">
-        <f t="shared" si="3"/>
-        <v>2123.4790000000003</v>
-      </c>
-      <c r="Q17" s="8">
-        <f>'02-02-26'!Q17+'03-02-26'!Q17+'04-02-26'!Q17+'05-02-26'!Q17+'06-02-26'!Q17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <f t="shared" si="2"/>
-        <v>-2123.4790000000003</v>
-      </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="6">
-        <f>'02-02-26'!F18+'03-02-26'!F18+'04-02-26'!F18+'05-02-26'!F18+'06-02-26'!F18</f>
-        <v>1380</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="16">
-        <f>'02-02-26'!H18+'03-02-26'!H18+'04-02-26'!H18+'05-02-26'!H18+'06-02-26'!H18</f>
-        <v>510</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="1"/>
-        <v>1020</v>
-      </c>
-      <c r="K18" s="8">
-        <f>'02-02-26'!K18+'03-02-26'!K18+'04-02-26'!K18+'05-02-26'!K18+'06-02-26'!K18</f>
-        <v>400</v>
-      </c>
-      <c r="L18" s="8">
-        <f>'02-02-26'!L18+'03-02-26'!L18+'04-02-26'!L18+'05-02-26'!L18+'06-02-26'!L18</f>
-        <v>100</v>
-      </c>
-      <c r="M18" s="8">
-        <f>'02-02-26'!M18+'03-02-26'!M18+'04-02-26'!L18+'05-02-26'!M18+'06-02-26'!M18</f>
-        <v>100</v>
-      </c>
-      <c r="N18" s="8">
-        <f>'02-02-26'!N18+'03-02-26'!N18+'04-02-26'!N18+'05-02-26'!N18+'06-02-26'!N18</f>
-        <v>119</v>
-      </c>
-      <c r="O18" s="8">
-        <f>'02-02-26'!O18+'03-02-26'!O18+'04-02-26'!O18+'05-02-26'!O18+'06-02-26'!O18</f>
-        <v>400</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="3"/>
-        <v>2139</v>
-      </c>
-      <c r="Q18" s="8">
-        <f>'02-02-26'!Q18+'03-02-26'!Q18+'04-02-26'!Q18+'05-02-26'!Q18+'06-02-26'!Q18</f>
-        <v>3720</v>
-      </c>
-      <c r="R18" s="7">
-        <f t="shared" si="2"/>
-        <v>1581</v>
-      </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="6">
-        <f>'02-02-26'!F19+'03-02-26'!F19+'04-02-26'!F19+'05-02-26'!F19+'06-02-26'!F19</f>
-        <v>100</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="16">
-        <f>'02-02-26'!H19+'03-02-26'!H19+'04-02-26'!H19+'05-02-26'!H19+'06-02-26'!H19</f>
-        <v>35</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="K19" s="8">
-        <f>'02-02-26'!K19+'03-02-26'!K19+'04-02-26'!K19+'05-02-26'!K19+'06-02-26'!K19</f>
-        <v>400</v>
-      </c>
-      <c r="L19" s="8">
-        <f>'02-02-26'!L19+'03-02-26'!L19+'04-02-26'!L19+'05-02-26'!L19+'06-02-26'!L19</f>
-        <v>100</v>
-      </c>
-      <c r="M19" s="8">
-        <f>'02-02-26'!M19+'03-02-26'!M19+'04-02-26'!L19+'05-02-26'!M19+'06-02-26'!M19</f>
-        <v>100</v>
-      </c>
-      <c r="N19" s="8">
-        <f>'02-02-26'!N19+'03-02-26'!N19+'04-02-26'!N19+'05-02-26'!N19+'06-02-26'!N19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <f>'02-02-26'!O19+'03-02-26'!O19+'04-02-26'!O19+'05-02-26'!O19+'06-02-26'!O19</f>
-        <v>400</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="3"/>
-        <v>1070</v>
-      </c>
-      <c r="Q19" s="8">
-        <f>'02-02-26'!Q19+'03-02-26'!Q19+'04-02-26'!Q19+'05-02-26'!Q19+'06-02-26'!Q19</f>
-        <v>200</v>
-      </c>
-      <c r="R19" s="7">
-        <f t="shared" si="2"/>
-        <v>-870</v>
-      </c>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="6">
-        <f>'02-02-26'!F20+'03-02-26'!F20+'04-02-26'!F20+'05-02-26'!F20+'06-02-26'!F20</f>
-        <v>1700</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="16">
-        <f>'02-02-26'!H20+'03-02-26'!H20+'04-02-26'!H20+'05-02-26'!H20+'06-02-26'!H20</f>
-        <v>565</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="1"/>
-        <v>1130</v>
-      </c>
-      <c r="K20" s="8">
-        <f>'02-02-26'!K20+'03-02-26'!K20+'04-02-26'!K20+'05-02-26'!K20+'06-02-26'!K20</f>
-        <v>2000</v>
-      </c>
-      <c r="L20" s="8">
-        <f>'02-02-26'!L20+'03-02-26'!L20+'04-02-26'!L20+'05-02-26'!L20+'06-02-26'!L20</f>
-        <v>160</v>
-      </c>
-      <c r="M20" s="8">
-        <f>'02-02-26'!M20+'03-02-26'!M20+'04-02-26'!L20+'05-02-26'!M20+'06-02-26'!M20</f>
-        <v>112</v>
-      </c>
-      <c r="N20" s="8">
-        <f>'02-02-26'!N20+'03-02-26'!N20+'04-02-26'!N20+'05-02-26'!N20+'06-02-26'!N20</f>
-        <v>373.38499999999999</v>
-      </c>
-      <c r="O20" s="8">
-        <f>'02-02-26'!O20+'03-02-26'!O20+'04-02-26'!O20+'05-02-26'!O20+'06-02-26'!O20</f>
-        <v>400</v>
-      </c>
-      <c r="P20" s="7">
-        <f t="shared" si="3"/>
-        <v>4175.3850000000002</v>
-      </c>
-      <c r="Q20" s="8">
-        <f>'02-02-26'!Q20+'03-02-26'!Q20+'04-02-26'!Q20+'05-02-26'!Q20+'06-02-26'!Q20</f>
-        <v>4740</v>
-      </c>
-      <c r="R20" s="7">
-        <f t="shared" si="2"/>
-        <v>564.61499999999978</v>
-      </c>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="6">
-        <f>'02-02-26'!F21+'03-02-26'!F21+'04-02-26'!F21+'05-02-26'!F21+'06-02-26'!F21</f>
-        <v>1800</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="16">
-        <f>'02-02-26'!H21+'03-02-26'!H21+'04-02-26'!H21+'05-02-26'!H21+'06-02-26'!H21</f>
-        <v>605</v>
-      </c>
-      <c r="I21" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="1"/>
-        <v>1210</v>
-      </c>
-      <c r="K21" s="8">
-        <f>'02-02-26'!K21+'03-02-26'!K21+'04-02-26'!K21+'05-02-26'!K21+'06-02-26'!K21</f>
-        <v>2000</v>
-      </c>
-      <c r="L21" s="8">
-        <f>'02-02-26'!L21+'03-02-26'!L21+'04-02-26'!L21+'05-02-26'!L21+'06-02-26'!L21</f>
-        <v>160</v>
-      </c>
-      <c r="M21" s="8">
-        <f>'02-02-26'!M21+'03-02-26'!M21+'04-02-26'!L21+'05-02-26'!M21+'06-02-26'!M21</f>
-        <v>112</v>
-      </c>
-      <c r="N21" s="8">
-        <f>'02-02-26'!N21+'03-02-26'!N21+'04-02-26'!N21+'05-02-26'!N21+'06-02-26'!N21</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <f>'02-02-26'!O21+'03-02-26'!O21+'04-02-26'!O21+'05-02-26'!O21+'06-02-26'!O21</f>
-        <v>400</v>
-      </c>
-      <c r="P21" s="7">
-        <f t="shared" si="3"/>
-        <v>3882</v>
-      </c>
-      <c r="Q21" s="8">
-        <f>'02-02-26'!Q21+'03-02-26'!Q21+'04-02-26'!Q21+'05-02-26'!Q21+'06-02-26'!Q21</f>
-        <v>4900</v>
-      </c>
-      <c r="R21" s="7">
-        <f t="shared" si="2"/>
-        <v>1018</v>
-      </c>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="11">
-        <f>SUM(F7:F24)</f>
-        <v>16786</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="18">
-        <f>SUM(H7:H24)</f>
-        <v>5385</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12">
-        <f>SUM(J7:J24)</f>
-        <v>10770</v>
-      </c>
-      <c r="K26" s="20">
-        <f>SUM(K7:K21)</f>
-        <v>15600</v>
-      </c>
-      <c r="L26" s="20">
-        <f>SUM(L7:L21)</f>
-        <v>1800</v>
-      </c>
-      <c r="M26" s="20">
-        <f t="shared" ref="M26:O26" si="4">SUM(M7:M21)</f>
-        <v>1560</v>
-      </c>
-      <c r="N26" s="20">
-        <f>SUM(N7:N23)</f>
-        <v>6464.295000000001</v>
-      </c>
-      <c r="O26" s="20">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="P26" s="12">
-        <f>SUM(P7:P24)</f>
-        <v>42194.295000000006</v>
-      </c>
-      <c r="Q26" s="12">
-        <f>SUM(Q7:Q24)</f>
-        <v>30444</v>
-      </c>
-      <c r="R26" s="12">
-        <f>SUM(R7:R24)</f>
-        <v>-11750.295</v>
-      </c>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:S4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R7:R24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>